--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Матвей\Desktop\VS_Code\Storehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028EE051-30B7-4A9C-AD24-AB3E779B6448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC86A46-8FDD-4CEC-9CFA-9E8C51889ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="6">
   <si>
     <t>g</t>
   </si>
@@ -93,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,7 +381,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +417,9 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -450,7 +453,9 @@
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -484,7 +489,9 @@
       <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -510,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>0</v>
@@ -518,7 +525,9 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -552,7 +561,9 @@
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -586,7 +597,9 @@
       <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -620,7 +633,9 @@
       <c r="J7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -631,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
@@ -653,6 +668,9 @@
       </c>
       <c r="J8" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -666,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
@@ -685,6 +703,9 @@
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -707,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -718,17 +739,44 @@
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Матвей\Desktop\VS_Code\Storehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC86A46-8FDD-4CEC-9CFA-9E8C51889ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332782E9-4461-4219-81B9-1959FCAEA64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="5">
   <si>
     <t>g</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -381,7 +378,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -523,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -544,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
@@ -586,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>2</v>
@@ -622,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
@@ -684,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
@@ -713,16 +710,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -731,13 +728,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>2</v>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Матвей\Desktop\VS_Code\Storehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332782E9-4461-4219-81B9-1959FCAEA64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2D500-8A6E-4E30-AF45-E0117C1F942A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>2</v>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Матвей\Desktop\VS_Code\Storehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2D500-8A6E-4E30-AF45-E0117C1F942A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221EB03-56C3-4ADC-A192-21529A977A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>g</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -378,86 +378,86 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -487,16 +487,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -550,22 +550,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -574,19 +574,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>0</v>
@@ -595,34 +595,34 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -667,15 +667,15 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -699,80 +699,80 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
